--- a/results.xlsx
+++ b/results.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="298">
   <si>
     <t>VALUE</t>
   </si>
@@ -877,6 +877,66 @@
   </si>
   <si>
     <t>DIFF_TIME (POSITIVO = MELHOROU)</t>
+  </si>
+  <si>
+    <t>Média de piora da funçao objetivo</t>
+  </si>
+  <si>
+    <t>Média de melhora do tempo</t>
+  </si>
+  <si>
+    <t>MxN</t>
+  </si>
+  <si>
+    <t>10x100</t>
+  </si>
+  <si>
+    <t>10x250</t>
+  </si>
+  <si>
+    <t>10x500</t>
+  </si>
+  <si>
+    <t>30x100</t>
+  </si>
+  <si>
+    <t>30x250</t>
+  </si>
+  <si>
+    <t>30x500</t>
+  </si>
+  <si>
+    <t>5x100</t>
+  </si>
+  <si>
+    <t>5x250</t>
+  </si>
+  <si>
+    <t>5x500</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>M=5</t>
+  </si>
+  <si>
+    <t>M=10</t>
+  </si>
+  <si>
+    <t>M=30</t>
+  </si>
+  <si>
+    <t>N=100</t>
+  </si>
+  <si>
+    <t>N=250</t>
+  </si>
+  <si>
+    <t>N=500</t>
+  </si>
+  <si>
+    <t>Média de piora da função objetivo</t>
   </si>
 </sst>
 </file>
@@ -884,9 +944,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,13 +969,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -931,20 +1005,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -957,8 +1126,2471 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Diferença percentual do tempo de execução e soluções encontradas vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>número de restrições</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> M</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média de piora da funçao objetivo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$L$13:$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>M=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M=30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$L$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4864331478023334E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7769839350162994E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.660277890536356E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-463347776"/>
+        <c:axId val="-463365728"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média de melhora do tempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$L$13:$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>M=5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M=10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M=30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$L$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36041223435883313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34200418374379393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4168196230371739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-463355936"/>
+        <c:axId val="-463367360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-463355936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número de restrições M</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-463367360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-463367360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Média de melhora do tempo </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-463355936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-463365728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Média de piora da funçao objetivo </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-463347776"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-463347776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-463365728"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Diferença percentual do tempo de execução e soluções encontradas vs. número de restrições N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média de piora da funçao objetivo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$L$18:$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>N=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>N=250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N=500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$L$19:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.8315266852970804E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6274684472089196E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6469984084898864E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-462219568"/>
+        <c:axId val="-462221200"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média de melhora do tempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$L$18:$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>N=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>N=250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N=500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$L$20:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.53385982253941089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42883337086503115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15654284773535901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-462223376"/>
+        <c:axId val="-462238608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-462223376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Número de variáveis N</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-462238608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-462238608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Média de melhora do tempo </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-462223376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-462221200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Média de piora da funçao objetivo </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-462219568"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-462219568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-462221200"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="K1:M11" headerRowDxfId="2">
+  <autoFilter ref="K1:M11">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="MxN" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Média de piora da função objetivo" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Porcentagem"/>
+    <tableColumn id="3" name="Média de melhora do tempo" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="1" dataCellStyle="Porcentagem"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1224,10 +3856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H288"/>
+  <dimension ref="A1:N288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,9 +3871,13 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>275</v>
       </c>
@@ -1264,8 +3900,18 @@
       <c r="H1" s="4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1289,8 +3935,17 @@
         <f>(C2-E2)/C2</f>
         <v>0.46834606411970514</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K2" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" s="11">
+        <v>4.9330060566943638E-3</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0.49729444749857959</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1314,8 +3969,17 @@
         <f t="shared" ref="H3:H66" si="1">(C3-E3)/C3</f>
         <v>0.86419989285987697</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="L3" s="11">
+        <v>2.1641129572684782E-3</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0.41360269886513351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1339,8 +4003,17 @@
         <f t="shared" si="1"/>
         <v>0.79484569486220202</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" s="11">
+        <v>3.6218042944415871E-4</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.17033955671278628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1364,8 +4037,17 @@
         <f t="shared" si="1"/>
         <v>0.8168932260534354</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>281</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5.0746697861884403E-3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.50494567185452732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1389,8 +4071,17 @@
         <f t="shared" si="1"/>
         <v>0.66173933775577509</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>282</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2.7650527943869642E-3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.41067086906612804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1414,8 +4105,17 @@
         <f t="shared" si="1"/>
         <v>0.56940112186173497</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4.9122922447349397E-4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.11039601031072642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1439,8 +4139,17 @@
         <f t="shared" si="1"/>
         <v>0.84931658964351742</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K8" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="L8" s="11">
+        <v>7.486904213008439E-3</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.59933934826512569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1464,8 +4173,17 @@
         <f t="shared" si="1"/>
         <v>0.84505102948930322</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K9" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2.953239589971316E-3</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0.46222654466383173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1489,8 +4207,17 @@
         <f t="shared" si="1"/>
         <v>0.85292333584614632</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K10" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="L10" s="11">
+        <v>5.4068986862931335E-4</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.18889297618256437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1514,8 +4241,19 @@
         <f t="shared" si="1"/>
         <v>0.91666501096077291</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K11" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L11" s="5">
+        <f>AVERAGE(L2:L10)</f>
+        <v>2.9745649911183301E-3</v>
+      </c>
+      <c r="M11" s="5">
+        <f>AVERAGE(M2:M10)</f>
+        <v>0.37307868037993358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1540,7 +4278,7 @@
         <v>7.5931762559719226E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1564,8 +4302,18 @@
         <f t="shared" si="1"/>
         <v>0.79856296504667112</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K13" s="4"/>
+      <c r="L13" t="s">
+        <v>291</v>
+      </c>
+      <c r="M13" t="s">
+        <v>292</v>
+      </c>
+      <c r="N13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1589,8 +4337,20 @@
         <f t="shared" si="1"/>
         <v>0.18054044364777633</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K14" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L14" s="7">
+        <v>2.4864331478023334E-3</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2.7769839350162994E-3</v>
+      </c>
+      <c r="N14" s="9">
+        <v>3.660277890536356E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1614,8 +4374,20 @@
         <f t="shared" si="1"/>
         <v>0.75511120914195273</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K15" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.36041223435883313</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.34200418374379393</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.4168196230371739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1639,8 +4411,11 @@
         <f t="shared" si="1"/>
         <v>3.8134795286111391E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16" s="8"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1664,8 +4439,10 @@
         <f t="shared" si="1"/>
         <v>0.88970446441406503</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1689,8 +4466,17 @@
         <f t="shared" si="1"/>
         <v>0.93524649216096567</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L18" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="N18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1714,8 +4500,23 @@
         <f t="shared" si="1"/>
         <v>-1.4286371152736019E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L19" s="7">
+        <f>AVERAGE(L2,L5,L8)</f>
+        <v>5.8315266852970804E-3</v>
+      </c>
+      <c r="M19" s="7">
+        <f>AVERAGE(L3,L6,L9)</f>
+        <v>2.6274684472089196E-3</v>
+      </c>
+      <c r="N19" s="7">
+        <f>AVERAGE(L4,L7,L10)</f>
+        <v>4.6469984084898864E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1739,8 +4540,23 @@
         <f t="shared" si="1"/>
         <v>0.95068083748887633</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K20" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L20" s="7">
+        <f>AVERAGE(M2,M5,M8)</f>
+        <v>0.53385982253941089</v>
+      </c>
+      <c r="M20" s="7">
+        <f>AVERAGE(M3,M6,M9)</f>
+        <v>0.42883337086503115</v>
+      </c>
+      <c r="N20" s="7">
+        <f>AVERAGE(M4,M7,M10)</f>
+        <v>0.15654284773535901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1765,7 +4581,7 @@
         <v>0.8792179552207523</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1790,7 +4606,7 @@
         <v>0.10797808335711792</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1815,7 +4631,7 @@
         <v>-1.8581111051969648E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1840,7 +4656,7 @@
         <v>4.5277053469012654E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1865,7 +4681,7 @@
         <v>0.91111829318583015</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1890,7 +4706,7 @@
         <v>0.94751175626012618</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,7 +4731,7 @@
         <v>0.1360096054351948</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1940,7 +4756,7 @@
         <v>3.373830549260045E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1965,7 +4781,7 @@
         <v>4.9269241429850735E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1990,7 +4806,7 @@
         <v>-3.1953004506004731E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -2015,7 +4831,7 @@
         <v>-4.9797928292848468E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="F32" s="4" t="s">
         <v>274</v>
@@ -8175,5 +10991,9 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>